--- a/biology/Biologie cellulaire et moléculaire/Lone_Frank/Lone_Frank.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Lone_Frank/Lone_Frank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lone Frank (née Lone Frank Pedersen [1] en 1966 à Aarhus [2]) est une journaliste scientifique danoise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lone Frank (née Lone Frank Pedersen  en 1966 à Aarhus ) est une journaliste scientifique danoise.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titulaire d'un doctorat (Ph.D.) en neurobiologie, Lone Frank écrit régulièrement dans le journal Weekendavisen (« Journal du week-end » en danois) depuis 1998. Elle a tenu ou participé à de nombreuses conférences et travaillé à la radio ainsi qu'à la télévision. Dans ce cadre, elle a organisé et présenté entre autres les émissions « Les défis de la science » (Videnskab der udfordrer, 2007) et « L'homme en creux » (Hulemanden indeni, 2008)[3] sur la chaîne DR2.
-Lone Frank appartient au conseil d'administration de la fondation Svend Bergsøes et est membre du conseil consultatif de la Faculté des Sciences de la Vie de Copenhague. Elle est également membre d'un groupe VL (réseau réunissant des personnalités et des chefs d'entreprise), le n°67[4].
-Avant de valider sa thèse, Frank a reçu une maîtrise de biologie sur « La régulation transcriptionnelle des récepteurs du glutamate dans l'ischémie cérébrale » à l'université d'Aarhus en 1992[5].
-En septembre 2010, son livre Mon beau génome est favorablement accueilli par la critique. Ce livre, compilant un certain nombre d'études, tente de montrer comment l'arrière-plan biologique détermine le développement de l'individu (humain) et jusqu'à quel point les facteurs génétiques comptent[6]. En 2011, le livre a été publié en anglais, sous le titre My Beautiful Genome: Exposing Our Genetic Future, One Quirk at a Time ; il a également été traduit en allemand et en néerlandais[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titulaire d'un doctorat (Ph.D.) en neurobiologie, Lone Frank écrit régulièrement dans le journal Weekendavisen (« Journal du week-end » en danois) depuis 1998. Elle a tenu ou participé à de nombreuses conférences et travaillé à la radio ainsi qu'à la télévision. Dans ce cadre, elle a organisé et présenté entre autres les émissions « Les défis de la science » (Videnskab der udfordrer, 2007) et « L'homme en creux » (Hulemanden indeni, 2008) sur la chaîne DR2.
+Lone Frank appartient au conseil d'administration de la fondation Svend Bergsøes et est membre du conseil consultatif de la Faculté des Sciences de la Vie de Copenhague. Elle est également membre d'un groupe VL (réseau réunissant des personnalités et des chefs d'entreprise), le n°67.
+Avant de valider sa thèse, Frank a reçu une maîtrise de biologie sur « La régulation transcriptionnelle des récepteurs du glutamate dans l'ischémie cérébrale » à l'université d'Aarhus en 1992.
+En septembre 2010, son livre Mon beau génome est favorablement accueilli par la critique. Ce livre, compilant un certain nombre d'études, tente de montrer comment l'arrière-plan biologique détermine le développement de l'individu (humain) et jusqu'à quel point les facteurs génétiques comptent. En 2011, le livre a été publié en anglais, sous le titre My Beautiful Genome: Exposing Our Genetic Future, One Quirk at a Time ; il a également été traduit en allemand et en néerlandais.
 En 2015, elle réalise un film documentaire intitulé Ce que mes gènes disent de moi.
 </t>
         </is>
